--- a/5.测试/用户管理模块-测试用例&单元测试.xlsx
+++ b/5.测试/用户管理模块-测试用例&单元测试.xlsx
@@ -168,9 +168,6 @@
     <t>显示”账户已存在”</t>
   </si>
   <si>
-    <t>场景</t>
-  </si>
-  <si>
     <t>输入账号为空，两次密码不一致</t>
   </si>
   <si>
@@ -183,100 +180,108 @@
     <t>与预期相同</t>
   </si>
   <si>
+    <t>输入账号为空，密码为空</t>
+  </si>
+  <si>
+    <t>密码:  “”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       “”</t>
+  </si>
+  <si>
+    <t>显示账号不能为空</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  输入账号小于6于20位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 密码不一致</t>
+  </si>
+  <si>
+    <t>用户名: cdk</t>
+  </si>
+  <si>
+    <t>密码:  “asdasdad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       “1234124</t>
+  </si>
+  <si>
+    <t>显示”请输入一个账号长度在6至20位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cdk1231242142132144211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  输入密码小于6位或20位</t>
+  </si>
+  <si>
+    <t>账户已存在</t>
+  </si>
+  <si>
+    <t>密码:  “asd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       “123</t>
+  </si>
+  <si>
+    <t>显示”请输入一个密码长度在6至20位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> asdasdsadasdsadwqesadasd</t>
+  </si>
+  <si>
+    <t>asdasdsadasdsadwqesadasd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       “</t>
+  </si>
+  <si>
+    <t>测试结论</t>
+  </si>
+  <si>
+    <t>2状态</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>错误说明</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>错误重现说明</t>
+  </si>
+  <si>
+    <t>错误重现</t>
+  </si>
+  <si>
+    <t>测试人员</t>
+  </si>
+  <si>
+    <t>测试时间</t>
+  </si>
+  <si>
     <t>场景八</t>
-  </si>
-  <si>
-    <t>输入账号为空，密码为空</t>
-  </si>
-  <si>
-    <t>密码:  “”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       “”</t>
-  </si>
-  <si>
-    <t>显示账号不能为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>场景九</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  输入账号小于6于20位</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 密码不一致</t>
-  </si>
-  <si>
-    <t>用户名: cdk</t>
-  </si>
-  <si>
-    <t>密码:  “asdasdad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       “1234124</t>
-  </si>
-  <si>
-    <t>显示”请输入一个账号长度在6至20位</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cdk1231242142132144211</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>场景十</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  输入密码小于6位或20位</t>
-  </si>
-  <si>
-    <t>账户已存在</t>
-  </si>
-  <si>
-    <t>密码:  “asd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       “123</t>
-  </si>
-  <si>
-    <t>显示”请输入一个密码长度在6至20位</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> asdasdsadasdsadwqesadasd</t>
-  </si>
-  <si>
-    <t>asdasdsadasdsadwqesadasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       “</t>
-  </si>
-  <si>
-    <t>测试结论</t>
-  </si>
-  <si>
-    <t>2状态</t>
-  </si>
-  <si>
-    <t>正常</t>
-  </si>
-  <si>
-    <t>错误说明</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>错误重现说明</t>
-  </si>
-  <si>
-    <t>错误重现</t>
-  </si>
-  <si>
-    <t>测试人员</t>
-  </si>
-  <si>
-    <t>陈董锴</t>
-  </si>
-  <si>
-    <t>测试时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景十一</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴安之</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -642,16 +647,16 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,11 +746,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1048,9 +1053,9 @@
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1059,9 +1064,9 @@
       <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1070,9 +1075,9 @@
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1104,7 +1109,7 @@
       </c>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1142,7 @@
       </c>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -1155,7 +1160,7 @@
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1190,7 +1195,7 @@
       <c r="D13" s="25"/>
       <c r="E13" s="26"/>
     </row>
-    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="5" t="s">
         <v>22</v>
@@ -1203,7 +1208,7 @@
       </c>
       <c r="E14" s="38"/>
     </row>
-    <row r="15" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="5" t="s">
         <v>23</v>
@@ -1221,7 +1226,7 @@
       <c r="D16" s="41"/>
       <c r="E16" s="42"/>
     </row>
-    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -1236,7 +1241,7 @@
       </c>
       <c r="E17" s="38"/>
     </row>
-    <row r="18" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
@@ -1269,7 +1274,7 @@
       </c>
       <c r="E20" s="38"/>
     </row>
-    <row r="21" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="5" t="s">
         <v>31</v>
@@ -1278,7 +1283,7 @@
       <c r="D21" s="39"/>
       <c r="E21" s="40"/>
     </row>
-    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="5" t="s">
         <v>32</v>
@@ -1296,7 +1301,7 @@
       <c r="D23" s="41"/>
       <c r="E23" s="42"/>
     </row>
-    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
@@ -1311,7 +1316,7 @@
       </c>
       <c r="E24" s="38"/>
     </row>
-    <row r="25" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
@@ -1331,7 +1336,7 @@
       <c r="D26" s="41"/>
       <c r="E26" s="42"/>
     </row>
-    <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="5" t="s">
         <v>36</v>
@@ -1353,7 +1358,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="40"/>
     </row>
-    <row r="29" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="5" t="s">
         <v>40</v>
@@ -1369,7 +1374,7 @@
       <c r="D30" s="41"/>
       <c r="E30" s="42"/>
     </row>
-    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>41</v>
       </c>
@@ -1384,7 +1389,7 @@
       </c>
       <c r="E31" s="38"/>
     </row>
-    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>42</v>
       </c>
@@ -1404,7 +1409,7 @@
       <c r="D33" s="41"/>
       <c r="E33" s="42"/>
     </row>
-    <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>45</v>
       </c>
@@ -1419,7 +1424,7 @@
       </c>
       <c r="E34" s="38"/>
     </row>
-    <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>46</v>
       </c>
@@ -1439,24 +1444,24 @@
       <c r="D36" s="41"/>
       <c r="E36" s="42"/>
     </row>
-    <row r="37" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="38"/>
+    </row>
+    <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="38"/>
-    </row>
-    <row r="38" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>47</v>
@@ -1474,27 +1479,27 @@
       <c r="D39" s="41"/>
       <c r="E39" s="42"/>
     </row>
-    <row r="40" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="38"/>
+    </row>
+    <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="38"/>
-    </row>
-    <row r="41" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="39"/>
@@ -1503,44 +1508,44 @@
     <row r="42" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="41"/>
       <c r="E42" s="42"/>
     </row>
-    <row r="43" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>65</v>
-      </c>
       <c r="D43" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="38"/>
     </row>
-    <row r="44" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="C44" s="35"/>
       <c r="D44" s="39"/>
       <c r="E44" s="40"/>
     </row>
-    <row r="45" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="C45" s="36"/>
       <c r="D45" s="41"/>
@@ -1552,87 +1557,87 @@
         <v>30</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="38"/>
     </row>
-    <row r="47" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C47" s="35"/>
       <c r="D47" s="39"/>
       <c r="E47" s="40"/>
     </row>
-    <row r="48" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C48" s="35"/>
       <c r="D48" s="39"/>
       <c r="E48" s="40"/>
     </row>
-    <row r="49" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="41"/>
       <c r="E49" s="42"/>
     </row>
-    <row r="50" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E50" s="38"/>
     </row>
-    <row r="51" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C51" s="35"/>
       <c r="D51" s="39"/>
       <c r="E51" s="40"/>
     </row>
-    <row r="52" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="41"/>
       <c r="E52" s="42"/>
     </row>
-    <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E53" s="38"/>
     </row>
@@ -1645,19 +1650,19 @@
       <c r="D54" s="39"/>
       <c r="E54" s="40"/>
     </row>
-    <row r="55" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C55" s="35"/>
       <c r="D55" s="39"/>
       <c r="E55" s="40"/>
     </row>
-    <row r="56" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C56" s="35"/>
       <c r="D56" s="39"/>
@@ -1666,7 +1671,7 @@
     <row r="57" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C57" s="36"/>
       <c r="D57" s="41"/>
@@ -1674,82 +1679,77 @@
     </row>
     <row r="58" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="45"/>
+        <v>72</v>
+      </c>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="46"/>
     </row>
     <row r="59" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="14"/>
-    </row>
-    <row r="61" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
     </row>
     <row r="62" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
     </row>
     <row r="63" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="14"/>
+        <v>85</v>
+      </c>
+      <c r="C63" s="15"/>
       <c r="D63" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E63" s="11">
         <v>43108</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
+      <c r="A64" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="D46:E49"/>
@@ -1757,6 +1757,11 @@
     <mergeCell ref="D50:E52"/>
     <mergeCell ref="C53:C57"/>
     <mergeCell ref="D53:E57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="D37:E39"/>
     <mergeCell ref="C40:C42"/>
